--- a/curso_basico_excel/Módulo 02 - Mini Dashboard Copa do Mundo/Treinamento.xlsx
+++ b/curso_basico_excel/Módulo 02 - Mini Dashboard Copa do Mundo/Treinamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vba_academy\curso_basico_excel\Módulo 02 - Mini Dashboard Copa do Mundo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B03B82-690B-4E32-84DF-C9D99113C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC686DDC-87DC-4C9B-AECB-BE5A7B791D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F33C67B-6D81-498B-AB2D-5C36AB59C8B3}"/>
   </bookViews>
